--- a/实验4：软件测试/软件测试对软件需求和设计实现覆盖的表格/G-软件需求分析汇总v1.0.xlsx
+++ b/实验4：软件测试/软件测试对软件需求和设计实现覆盖的表格/G-软件需求分析汇总v1.0.xlsx
@@ -1,5 +1,951 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+  <si>
+    <t>软件需求汇总表</t>
+  </si>
+  <si>
+    <t>软件需求编号</t>
+  </si>
+  <si>
+    <t>软件需求类别</t>
+  </si>
+  <si>
+    <t>软件需求（项）</t>
+  </si>
+  <si>
+    <t>说明章节（页号/行号）</t>
+  </si>
+  <si>
+    <t>描述方式（数量）</t>
+  </si>
+  <si>
+    <t>简述/备注</t>
+  </si>
+  <si>
+    <t>SR1</t>
+  </si>
+  <si>
+    <t>业务需求</t>
+  </si>
+  <si>
+    <t>初学者使用Torch</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.1.1（3）</t>
+  </si>
+  <si>
+    <t>文字说明</t>
+  </si>
+  <si>
+    <t>分析使用Torch的一类用户，分析Torch的业务需求</t>
+  </si>
+  <si>
+    <t>SR2</t>
+  </si>
+  <si>
+    <t>科研人员使用Torch</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>深度学习领域中使用Torch</t>
+  </si>
+  <si>
+    <t>SR4</t>
+  </si>
+  <si>
+    <t>功能需求</t>
+  </si>
+  <si>
+    <t>功能需求分析</t>
+  </si>
+  <si>
+    <t>SR401</t>
+  </si>
+  <si>
+    <t>文件数据读取</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.6.1（13）</t>
+  </si>
+  <si>
+    <t>文字说明和RUCM</t>
+  </si>
+  <si>
+    <t>用户在Torch平台上从文件读取数据</t>
+  </si>
+  <si>
+    <t>SR402</t>
+  </si>
+  <si>
+    <t>导入工具包</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.6.2（14）</t>
+  </si>
+  <si>
+    <t>用户在Torch平台上导入自己需要的工具包</t>
+  </si>
+  <si>
+    <t>SR403</t>
+  </si>
+  <si>
+    <t>搭建MLP神经网络</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.6.3（15）</t>
+  </si>
+  <si>
+    <t>用户在Torch平台上搭建MLP神经网络</t>
+  </si>
+  <si>
+    <t>SR404</t>
+  </si>
+  <si>
+    <t>搭建卷积神经网络</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.6.4（16）</t>
+  </si>
+  <si>
+    <t>用户在Torch平台上搭建卷积神经网络</t>
+  </si>
+  <si>
+    <t>SR405</t>
+  </si>
+  <si>
+    <t>训练神经网络</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.6.5（17）</t>
+  </si>
+  <si>
+    <t>用户在Torch平台上搭建好神经网络后，对神经网络进行训练</t>
+  </si>
+  <si>
+    <t>SR406</t>
+  </si>
+  <si>
+    <t>测试神经网络</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.6.6（18）</t>
+  </si>
+  <si>
+    <t>用户在Torch平台上训练好神经网络后，对神经网络进行测试</t>
+  </si>
+  <si>
+    <t>SR5</t>
+  </si>
+  <si>
+    <t>扩展功能</t>
+  </si>
+  <si>
+    <t>扩展功能需求分析</t>
+  </si>
+  <si>
+    <t>SR501</t>
+  </si>
+  <si>
+    <t>修改卷积层</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.3.1（5）</t>
+  </si>
+  <si>
+    <t>扩展Torch的功能，对卷积层进行修改</t>
+  </si>
+  <si>
+    <t>SR502</t>
+  </si>
+  <si>
+    <t>修改全连接层</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.3.2（6）</t>
+  </si>
+  <si>
+    <t>扩展Torch的功能，对全连接层进行修改</t>
+  </si>
+  <si>
+    <t>SR6</t>
+  </si>
+  <si>
+    <t>非功能需求</t>
+  </si>
+  <si>
+    <t>非功能需求分析</t>
+  </si>
+  <si>
+    <t>SR601</t>
+  </si>
+  <si>
+    <t>高效性</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.4.1（7）</t>
+  </si>
+  <si>
+    <t>Torch以具有轻量级系统、高效底层语言支持、支持并发运行等特性，使其具有运行时非常高效</t>
+  </si>
+  <si>
+    <t>SR602</t>
+  </si>
+  <si>
+    <t>用户友好型</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.4.2（7）</t>
+  </si>
+  <si>
+    <t>Torch拥有更简洁易懂的操作界面，具有用户友好性</t>
+  </si>
+  <si>
+    <t>SR603</t>
+  </si>
+  <si>
+    <t>可修改性</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.4.3（7）</t>
+  </si>
+  <si>
+    <t>Torch平台拥有丰富的工具包，开发员可以修改工具包来扩展Torch功能</t>
+  </si>
+  <si>
+    <t>SR604</t>
+  </si>
+  <si>
+    <t>鲁棒性</t>
+  </si>
+  <si>
+    <t>《基于Torch平台的神经网络压缩研究与应用》需求文档v2.3-3.4.4（7）</t>
+  </si>
+  <si>
+    <t>Torch平台为了保证异常和危险情况下都能保持健壮的表现和稳定的性能，要具有鲁棒性</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -255,6 +1201,401 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="63.75" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="80.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <headerFooter/>
+</worksheet>
 </file>